--- a/src/database/BookingHistory.xlsx
+++ b/src/database/BookingHistory.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA56D08-3E0E-486C-847D-4F151826B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429D4B0-7D56-47D5-972D-9AFABD10B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0B887174-A346-4202-A044-7280DD71657A}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{83934A19-CB5D-49C7-89C5-6A46A7FDD360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,12 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>MobileNum</t>
+    <t>Mobile</t>
   </si>
   <si>
     <t>Email</t>
@@ -59,10 +59,16 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t>shinghao</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
+    <t/>
+  </si>
+  <si>
+    <t>shing</t>
+  </si>
+  <si>
+    <t>91234567</t>
+  </si>
+  <si>
+    <t>shing@gmail.com</t>
   </si>
   <si>
     <t>D01</t>
@@ -75,18 +81,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,16 +108,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,76 +426,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135DB4A-FC34-42C3-909C-0CE2492BC4D9}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77177D7-C16B-48D5-B7B1-B9ED6489238F}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>91234567</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>35</v>
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{60AF2094-8918-4073-97E5-9E9032585C42}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/database/BookingHistory.xlsx
+++ b/src/database/BookingHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohsh\Documents\GitHub\SC2002_Assignment\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429D4B0-7D56-47D5-972D-9AFABD10B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C4D63-1947-4744-AD79-52E1B9588DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{83934A19-CB5D-49C7-89C5-6A46A7FDD360}"/>
   </bookViews>
@@ -62,13 +62,13 @@
     <t/>
   </si>
   <si>
-    <t>shing</t>
+    <t>shinghao</t>
   </si>
   <si>
     <t>91234567</t>
   </si>
   <si>
-    <t>shing@gmail.com</t>
+    <t>sohshinghao@gmail.com</t>
   </si>
   <si>
     <t>D01</t>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,10 +498,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/database/BookingHistory.xlsx
+++ b/src/database/BookingHistory.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77177D7-C16B-48D5-B7B1-B9ED6489238F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -504,6 +504,29 @@
         <v>26.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>96.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/database/BookingHistory.xlsx
+++ b/src/database/BookingHistory.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77177D7-C16B-48D5-B7B1-B9ED6489238F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -527,6 +527,29 @@
         <v>96.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>48.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
